--- a/fuentes/contenidos/grado09/guion07/Escaleta_CN_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta_CN_09_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA 1\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado09\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Planeta\09_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="225">
   <si>
     <t>Asignatura</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Título del recurso</t>
-  </si>
-  <si>
-    <t>Descripción</t>
   </si>
   <si>
     <t>Interactivo</t>
@@ -431,9 +428,6 @@
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -464,18 +458,12 @@
     <t>Los ecosistemas en una atmósfera con abundante oxígeno</t>
   </si>
   <si>
-    <t>Interactivo en el que se muestran las principales etapas de la evolución conjunta de la atmósfera y los ecosistemas</t>
-  </si>
-  <si>
     <t>La selva tropical y sus cambios a través del tiempo</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La sucesión ecológica</t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre La sucesión ecológica</t>
-  </si>
-  <si>
     <t>Las diferentes etapas de la sucesión ecológica</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>Recurso M10A-02</t>
   </si>
   <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>Las cianobacterias y la producción de oxígeno</t>
   </si>
   <si>
@@ -527,36 +512,18 @@
     <t>El desarrollo y la evolución de los ecosistemas</t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre El estudio de los ecosistemas antiguos y su evolución</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los ecosistemas y la evolución de la atmósfera</t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre Los ecosistemas y la evolución de la atmósfera</t>
-  </si>
-  <si>
     <t>Los ecosistemas y la evolución de la atmósfera</t>
   </si>
   <si>
-    <t>Actividad relacionada con las etapas tempranas o maduras de la sucesión ecológica, en la que se ubican etiquetas en su respectivo contenedor</t>
-  </si>
-  <si>
-    <t>Interactivo en el que muestran similitudes y diferencias entre las sucesiones ecológicas de un ecosistema terrestre y uno acuático</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestran y explican las diferentes etapas de la sucesión ecológica</t>
-  </si>
-  <si>
     <t>Actividad en la que se ubican etiquetas, relacionadas con los ecosistemas y la evolución de la atmósfera, en su respectivo contenedor</t>
   </si>
   <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: La historia evolutiva de los ecosistemas “colombianos” </t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que consolida conocimientos sobre La historia evolutiva de tlos ecosistemas “colombianos” </t>
-  </si>
-  <si>
     <t xml:space="preserve">¿Qué caracteriza la sucesión ecológica? </t>
   </si>
   <si>
@@ -596,15 +563,9 @@
     <t>El estudio de fósiles de animales: foraminíferos</t>
   </si>
   <si>
-    <t xml:space="preserve">Acividad en la que se ordenan secuencialmente frases relacionadas con las diferentes etapas de la sucesión ecológica </t>
-  </si>
-  <si>
     <t>Consolidación de conocimientos sobre paleoecología</t>
   </si>
   <si>
-    <t>Actividad de preguntas con respuesta de escogencia múltiple sobre la paleoecología</t>
-  </si>
-  <si>
     <t>La evolución de la atmósfera y los ecosistemas</t>
   </si>
   <si>
@@ -632,49 +593,112 @@
     <t>Proyecto, cambios en los ecosistemas</t>
   </si>
   <si>
-    <t>Actividad para Inferir a partir de datos cómo eran los ecosistemas del Pleistoceno</t>
-  </si>
-  <si>
     <t>Cambios en los Andes colombianos a través del tiempo</t>
   </si>
   <si>
-    <t>Actividad para inferir, a partir de los cambios en Suramérica, las transformaciones en los ecosistemas colombianos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los arrecifes artificiales de coral </t>
   </si>
   <si>
-    <t>Actividad que le permite a los estudiantes inferir por qué tienen éxito los arrecifes artificiales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las sucesiones primarias y secundarias en el tiempo geológico </t>
   </si>
   <si>
-    <t>Actividad que permite a los estudiantes identificar cuándo se dieron sucesiones primarias o secundarias a lo largo del tiempo</t>
-  </si>
-  <si>
     <t>Los últimos mastodontes de la sabana de Bogotá</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que lleva a los estudiantes a conocer las posibles causas de la extinción de los mastodontes que existieron en la sabana de Bogotá </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad con imágen y texto para ordenar eventos de los cambios geológicos en Suramérica </t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestran los métodos de estudio utilizados por la paleoecología</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestra la historia evolutiva de los ecosistemas suramericanos</t>
-  </si>
-  <si>
-    <t>Juego del ahorcado sobre los ecosistemas del pasado</t>
-  </si>
-  <si>
     <t>M11a</t>
   </si>
   <si>
     <t>DIAP F1</t>
+  </si>
+  <si>
+    <t>Recursos M aleatorios y diaporama F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recurso M8A-01</t>
+  </si>
+  <si>
+    <t>Recurso F7B-02</t>
+  </si>
+  <si>
+    <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Recurso M12D-02</t>
+  </si>
+  <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender las diferentes etapas de la sucesión ecológica</t>
+  </si>
+  <si>
+    <t>Interactivo para comparar las sucesiones ecológicas de un ecosistema terrestre y uno acuático</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las etapas de la sucesión ecológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acividad para ordenar secuencialmente las etapas de la sucesión ecológica </t>
+  </si>
+  <si>
+    <t>Interactivo para reconocer los métodos de estudio utilizados por la paleoecología</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer conceptos sobre La sucesión ecológica</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer conceptos sobre la paleoecología</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar las etapas de la evolución de la atmósfera y los ecosistemas</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar conocimientos sobre Los ecosistemas y la evolución de la atmósfera</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender la historia evolutiva de los ecosistemas suramericanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para ordenar eventos de los cambios geológicos en Suramérica </t>
+  </si>
+  <si>
+    <t>Actividad para identificar características de los ecosistemas del pasado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que refuerza conocimientos sobre La historia evolutiva de los ecosistemas colombianos </t>
+  </si>
+  <si>
+    <t>Actividad para inferir cómo eran los ecosistemas del Pleistoceno</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las transformaciones en los ecosistemas colombianos</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los factores que permiten el desarrollo de los arrecifes artificiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer las posibles causas de la extinción de los mastodontes de la sabana de Bogotá </t>
+  </si>
+  <si>
+    <t>Actividad para identificar  las sucesiones primarias y secundarias a lo largo del tiempo</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conocimientos sobre El estudio de los ecosistemas antiguos y su evolución</t>
   </si>
 </sst>
 </file>
@@ -1033,6 +1057,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,36 +1118,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1402,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,104 +1455,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="G1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="97" t="s">
+      <c r="I1" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="P1" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="S1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="84" t="s">
+      <c r="T1" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="82" t="s">
+      <c r="U1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="84" t="s">
+    </row>
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="85"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="95"/>
     </row>
     <row r="3" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" s="61"/>
       <c r="E3" s="62"/>
@@ -1551,19 +1575,19 @@
     </row>
     <row r="4" spans="1:21" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>177</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="74"/>
@@ -1584,19 +1608,19 @@
     </row>
     <row r="5" spans="1:21" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="74"/>
@@ -1617,22 +1641,22 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="45"/>
@@ -1652,22 +1676,22 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="36"/>
@@ -1687,316 +1711,316 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H8" s="36">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="46"/>
       <c r="P8" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="57">
         <v>6</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H9" s="36">
         <v>2</v>
       </c>
       <c r="I9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L9" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="18"/>
       <c r="P9" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="57">
         <v>6</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H10" s="36">
         <v>3</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="60"/>
       <c r="P10" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="57">
         <v>6</v>
       </c>
       <c r="R10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>134</v>
-      </c>
       <c r="T10" s="35" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="36">
         <v>4</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="57">
         <v>6</v>
       </c>
       <c r="R11" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S11" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="T11" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" s="36">
         <v>5</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="58">
         <v>6</v>
       </c>
       <c r="R12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="T12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="U12" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
@@ -2019,16 +2043,16 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="18"/>
@@ -2050,19 +2074,19 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
@@ -2083,19 +2107,19 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
@@ -2116,22 +2140,22 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="36"/>
@@ -2151,194 +2175,194 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" s="36">
         <v>6</v>
       </c>
       <c r="I18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N18" s="56"/>
       <c r="O18" s="18"/>
       <c r="P18" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="57">
         <v>6</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T18" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H19" s="49">
         <v>7</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19" s="56"/>
       <c r="N19" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="57">
         <v>6</v>
       </c>
       <c r="R19" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="T19" s="35" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="48" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H20" s="37">
         <v>8</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="58">
         <v>6</v>
       </c>
       <c r="R20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="T20" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
@@ -2361,16 +2385,16 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
@@ -2392,19 +2416,19 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
@@ -2425,249 +2449,249 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H24" s="36">
         <v>9</v>
       </c>
       <c r="I24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L24" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="18"/>
       <c r="P24" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="57">
         <v>6</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="U24" s="34" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="77" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H25" s="36">
         <v>10</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="57">
         <v>6</v>
       </c>
       <c r="R25" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S25" s="34" t="s">
-        <v>134</v>
-      </c>
       <c r="T25" s="35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U25" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H26" s="36">
         <v>11</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="57">
         <v>6</v>
       </c>
       <c r="R26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S26" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="T26" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="U26" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H27" s="36">
         <v>12</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="58">
         <v>6</v>
       </c>
       <c r="R27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S27" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="T27" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
@@ -2690,16 +2714,16 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="18"/>
@@ -2721,19 +2745,19 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
@@ -2754,497 +2778,557 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="19" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H31" s="36">
         <v>13</v>
       </c>
       <c r="I31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L31" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="18"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="34"/>
+      <c r="P31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="57">
+        <v>6</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="19" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H32" s="36">
         <v>14</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O32" s="18"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="34"/>
+      <c r="P32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="57">
+        <v>6</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="T32" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H33" s="36">
         <v>15</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="O33" s="18"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="34"/>
+      <c r="P33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="57">
+        <v>6</v>
+      </c>
+      <c r="R33" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="U33" s="34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H34" s="37">
         <v>16</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="58">
         <v>6</v>
       </c>
       <c r="R34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="T34" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="18"/>
       <c r="G35" s="19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H35" s="49">
         <v>17</v>
       </c>
       <c r="I35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="L35" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="18"/>
       <c r="P35" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q35" s="57">
         <v>6</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S35" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="T35" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="U35" s="34" t="s">
         <v>134</v>
-      </c>
-      <c r="T35" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="U35" s="34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H36" s="49">
         <v>18</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="18"/>
       <c r="P36" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="57">
         <v>6</v>
       </c>
       <c r="R36" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S36" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="T36" s="35" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="U36" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H37" s="49">
         <v>19</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="18"/>
       <c r="P37" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="57">
         <v>6</v>
       </c>
       <c r="R37" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="S37" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="T37" s="35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U37" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="18"/>
       <c r="G38" s="19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H38" s="49">
         <v>20</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="18"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="34"/>
+      <c r="P38" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="57">
+        <v>6</v>
+      </c>
+      <c r="R38" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="U38" s="34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="18"/>
       <c r="G39" s="19" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H39" s="49">
         <v>21</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="18"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="34"/>
+      <c r="P39" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="57">
+        <v>6</v>
+      </c>
+      <c r="R39" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="U39" s="34" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="40" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="18"/>
       <c r="G40" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="49">
         <v>22</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
@@ -3258,116 +3342,116 @@
     </row>
     <row r="41" spans="1:21" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H41" s="37">
         <v>23</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" s="32"/>
       <c r="N41" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q41" s="58">
         <v>6</v>
       </c>
       <c r="R41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S41" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="T41" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H42" s="37">
         <v>24</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="58">
         <v>6</v>
       </c>
       <c r="R42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="S42" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="T42" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3988,192 +4072,202 @@
     <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:U41"/>
   <mergeCells count="20">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4184,16 +4278,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4231,36 +4315,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4272,14 +4356,14 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -4291,14 +4375,14 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4310,11 +4394,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -4326,12 +4410,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4343,12 +4427,12 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -4363,7 +4447,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4378,7 +4462,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4393,7 +4477,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4408,7 +4492,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4423,7 +4507,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4438,7 +4522,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4453,7 +4537,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4468,7 +4552,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4483,7 +4567,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4497,7 +4581,7 @@
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4511,7 +4595,7 @@
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4525,7 +4609,7 @@
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4539,7 +4623,7 @@
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4554,7 +4638,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4569,7 +4653,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4584,7 +4668,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4599,7 +4683,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4614,7 +4698,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4629,7 +4713,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4644,7 +4728,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4659,7 +4743,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4674,7 +4758,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4689,7 +4773,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4704,7 +4788,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4719,7 +4803,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4734,7 +4818,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4749,7 +4833,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4764,7 +4848,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4779,7 +4863,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4794,7 +4878,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4809,7 +4893,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4824,7 +4908,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4839,7 +4923,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4854,7 +4938,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4869,7 +4953,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4884,7 +4968,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4899,7 +4983,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4914,7 +4998,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4929,7 +5013,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4944,7 +5028,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -4959,7 +5043,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>

--- a/fuentes/contenidos/grado09/guion07/Escaleta_CN_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta_CN_09_07_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Planeta\09_07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="CN_09_07_CO" sheetId="6" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_09_07_CO!$A$2:$U$41</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1057,6 +1052,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,12 +1080,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,7 +1175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,7 +1210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1426,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,31 +1450,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="78" t="s">
         <v>107</v>
       </c>
       <c r="J1" s="88" t="s">
@@ -1488,7 +1483,7 @@
       <c r="K1" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="80" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="96" t="s">
@@ -1518,18 +1513,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="89"/>
       <c r="K2" s="91"/>
-      <c r="L2" s="79"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>149</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4269,15 +4264,15 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
